--- a/biology/Zoologie/Cnemaspis_beddomei/Cnemaspis_beddomei.xlsx
+++ b/biology/Zoologie/Cnemaspis_beddomei/Cnemaspis_beddomei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis beddomei est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis beddomei est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique au sud des Ghâts occidentaux en Inde. Elle se rencontre au Tamil Nadu et au Kerala. On la trouve sous les rochers dans la forêt tropicale humide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique au sud des Ghâts occidentaux en Inde. Elle se rencontre au Tamil Nadu et au Kerala. On la trouve sous les rochers dans la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis beddomei mesure, queue non comprise, jusqu'à 50,6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis beddomei mesure, queue non comprise, jusqu'à 50,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Henry Beddome[1]. Celui-ci avait décrit Gymnodactylus marmoratus en 1870[4] mais ce nom était préoccupé par Gymnodactylus marmoratus (Gray, 1831) (Cyrtodactylus marmoratus de nos jours) ; William Theobald l'a donc renommé Gymnodactylus beddomei.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Henry Beddome. Celui-ci avait décrit Gymnodactylus marmoratus en 1870 mais ce nom était préoccupé par Gymnodactylus marmoratus (Gray, 1831) (Cyrtodactylus marmoratus de nos jours) ; William Theobald l'a donc renommé Gymnodactylus beddomei.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Theobald, 1876 : Descriptive catalogue of the reptiles of British India. p. 1-238 (texte intégral).</t>
         </is>
